--- a/output/fit_clients/fit_round_444.xlsx
+++ b/output/fit_clients/fit_round_444.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1688909290.818985</v>
+        <v>2494816433.168227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07693231941402176</v>
+        <v>0.08616178702659189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0418523298480585</v>
+        <v>0.03477729397013841</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>844454599.2764562</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2413980826.090085</v>
+        <v>2413990484.384188</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1545864110716612</v>
+        <v>0.1498642787201536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04019562436012151</v>
+        <v>0.0338691706450217</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1206990517.234813</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4362239147.646388</v>
+        <v>3394411589.550745</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1397805651567278</v>
+        <v>0.138476380514354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02311952351046674</v>
+        <v>0.02619177101774964</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>161</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2181119613.678327</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3062536684.076947</v>
+        <v>2825723596.368132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09526038062295292</v>
+        <v>0.08408208764526592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03998961784510758</v>
+        <v>0.03200270029651419</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>164</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1531268407.793414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2552016757.922174</v>
+        <v>2126655274.794432</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1040028473708096</v>
+        <v>0.1133322943146733</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03942102353929917</v>
+        <v>0.05294125596012796</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1276008348.831002</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2729673647.143943</v>
+        <v>2255296319.229082</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1014568471254897</v>
+        <v>0.078120380701696</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04546710261976902</v>
+        <v>0.03898380787239202</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>140</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1364836814.490649</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3641028450.341201</v>
+        <v>2858035731.303766</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2113204578302793</v>
+        <v>0.1447245964392535</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02831548192941591</v>
+        <v>0.02774834608782709</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>142</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1820514348.237502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2188377047.897464</v>
+        <v>2030729992.998602</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1208872737122173</v>
+        <v>0.1303724726501795</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03700617868003823</v>
+        <v>0.02284259701080249</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1094188524.441087</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5847809539.145001</v>
+        <v>5293407433.724033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2038354564068451</v>
+        <v>0.1972877078744767</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05374929686822851</v>
+        <v>0.05038856114942358</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>187</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2923904934.575875</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3106933358.027317</v>
+        <v>3539801252.661569</v>
       </c>
       <c r="F11" t="n">
-        <v>0.135901390094147</v>
+        <v>0.1901208057624562</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03404105987782089</v>
+        <v>0.04029803479570158</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>184</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1553466629.438442</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2205799385.389322</v>
+        <v>2526794485.141132</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1241563046484598</v>
+        <v>0.1741064829649767</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04079466384813098</v>
+        <v>0.03446360289457288</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>152</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1102899637.982936</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3554466096.629098</v>
+        <v>3847612183.87348</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08530218892916662</v>
+        <v>0.06808895989871835</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02615013506207871</v>
+        <v>0.02604351159412753</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>149</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1777233125.892184</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2633352827.681986</v>
+        <v>3831546807.134385</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1574182684457534</v>
+        <v>0.1531217877471904</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03595907983174141</v>
+        <v>0.03458492157917897</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>142</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1316676474.851199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1445225735.420987</v>
+        <v>1595010881.178476</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08188654516752179</v>
+        <v>0.1041476879164489</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0452993447195732</v>
+        <v>0.04082007046178097</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>722612940.8078833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2067609336.833222</v>
+        <v>2387940500.006381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0902711219035597</v>
+        <v>0.08800159964301899</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03528751319841413</v>
+        <v>0.03345185241547959</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>92</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1033804737.877959</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3329168702.574324</v>
+        <v>3945165075.396226</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1442294972247974</v>
+        <v>0.1342931476791432</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03702952053757134</v>
+        <v>0.04353521379179554</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>133</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1664584419.070561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2680710493.207484</v>
+        <v>2983105253.379483</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1211535010946594</v>
+        <v>0.1550772462043916</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03221000935719831</v>
+        <v>0.02248553306187959</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>146</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1340355300.003506</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1343324094.826802</v>
+        <v>1051604292.573635</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1801146365494344</v>
+        <v>0.1437985283239286</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02348841268591341</v>
+        <v>0.01885140052578907</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>671662160.2748092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2218753639.87369</v>
+        <v>1950794739.924173</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1074999896435866</v>
+        <v>0.125553296983782</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02090860553322178</v>
+        <v>0.01996678922361766</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1109376823.007737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1798608082.468009</v>
+        <v>2642834382.829381</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0812907770797017</v>
+        <v>0.06197255035883933</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03266702606435585</v>
+        <v>0.03526416896132643</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>899304096.4458872</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2616794939.64195</v>
+        <v>3525683428.084767</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09934549418213168</v>
+        <v>0.1026036779398187</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05203459673861215</v>
+        <v>0.05503488007790809</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1308397554.317731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1287789744.165015</v>
+        <v>1251736122.505685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1603363717102993</v>
+        <v>0.142114283933865</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0345277424600817</v>
+        <v>0.05377624194566628</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>643894893.798052</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3407443762.219144</v>
+        <v>2632431990.412803</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1262904096395258</v>
+        <v>0.135923598228694</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03646046856137763</v>
+        <v>0.03386265486170695</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>130</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1703721888.973405</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1324547400.55337</v>
+        <v>1166070863.842862</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09018099146916503</v>
+        <v>0.0883569327447805</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02866730310076593</v>
+        <v>0.02032512443515344</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>662273689.6017698</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>926240405.9900739</v>
+        <v>990375622.2466979</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07966302856553784</v>
+        <v>0.08361003917433088</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03101517343801883</v>
+        <v>0.02762663469255895</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>463120157.0513189</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4648763322.942823</v>
+        <v>4267938651.614749</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1119943003255364</v>
+        <v>0.1083119100722257</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0202008982831649</v>
+        <v>0.01887673173402432</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2324381639.39854</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3095144318.099703</v>
+        <v>2969787344.139552</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1000447247883035</v>
+        <v>0.1211065045188549</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04742018661380373</v>
+        <v>0.04835283767774205</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>143</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1547572178.579334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5221450559.918524</v>
+        <v>4978550510.149504</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1473871329187733</v>
+        <v>0.1357212540257239</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04410769266573683</v>
+        <v>0.03855828968383087</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>196</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2610725212.162329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1937882935.751074</v>
+        <v>2289847893.290688</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1099619869482008</v>
+        <v>0.1156023032022419</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03630499572071588</v>
+        <v>0.03924526668474557</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>968941498.3106681</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1488998561.35969</v>
+        <v>1091614374.576812</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09310321062046141</v>
+        <v>0.1107077764130216</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05001304510924094</v>
+        <v>0.03573359209609196</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>744499164.1430578</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1199698830.418896</v>
+        <v>1852233875.096835</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1203966233673767</v>
+        <v>0.08820746735557819</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02353365454605907</v>
+        <v>0.03371947318578151</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>599849421.3658991</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2931751086.815471</v>
+        <v>2919261455.716594</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1435793827858156</v>
+        <v>0.1801091239553625</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0452526686802832</v>
+        <v>0.03853515014143718</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>136</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1465875544.867637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1255588265.371012</v>
+        <v>1365624379.670025</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09869245285099507</v>
+        <v>0.07725129497790011</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01946750777044533</v>
+        <v>0.0199936588294221</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>627794128.6856345</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>874937770.603171</v>
+        <v>1294396387.867479</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09044213305225511</v>
+        <v>0.07425197405292228</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03076469715433169</v>
+        <v>0.03674625156299505</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>437468931.3089873</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3118961581.190796</v>
+        <v>2305109061.070464</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1802906603385459</v>
+        <v>0.142574797558224</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02405657432914676</v>
+        <v>0.0201095290327258</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>112</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1559480763.013105</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1996267132.731956</v>
+        <v>2023360499.673647</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08259659388485743</v>
+        <v>0.07662305079746844</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02804230547424359</v>
+        <v>0.0408823950262286</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>119</v>
-      </c>
-      <c r="J37" t="n">
-        <v>998133593.1470789</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1515093774.207054</v>
+        <v>1789425353.687876</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08509286889335346</v>
+        <v>0.1208252722386802</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02406021334292359</v>
+        <v>0.03923833497494327</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>757546934.2479423</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1395228288.217331</v>
+        <v>1899534616.262105</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1303758693862455</v>
+        <v>0.1776325480743827</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02192684107275432</v>
+        <v>0.02463807026460817</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>697614230.4717273</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1244008756.288833</v>
+        <v>1263515985.2627</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1009193547495108</v>
+        <v>0.1140146846584694</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04926630620164889</v>
+        <v>0.04214704993339071</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>622004408.4494474</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1839004340.73823</v>
+        <v>1876161691.898877</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1173163243105411</v>
+        <v>0.1294950760676842</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03168543267041606</v>
+        <v>0.04490331117339251</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>919502260.3535501</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3253731166.480687</v>
+        <v>2699702924.186124</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1092662298801044</v>
+        <v>0.1033364341777182</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02823590523610667</v>
+        <v>0.02908647678541541</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1626865561.18743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2215584350.254657</v>
+        <v>2782090320.326307</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1657939052570413</v>
+        <v>0.1724448894663957</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02082580357550197</v>
+        <v>0.0213830367265832</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>154</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1107792252.410091</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1783220406.200765</v>
+        <v>1654666496.437498</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07959932953685139</v>
+        <v>0.07562292320732852</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02520248757297171</v>
+        <v>0.03298132861422465</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>891610266.2034419</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2156976411.248537</v>
+        <v>1654227697.301142</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1312031481900238</v>
+        <v>0.1689311287792771</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04809241847911237</v>
+        <v>0.05188219187221632</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1078488212.317605</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3608846290.195184</v>
+        <v>4615793445.075425</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1138923725726249</v>
+        <v>0.1079693947319511</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05942600771234968</v>
+        <v>0.06112636581998548</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>158</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1804423092.262694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4466704068.557067</v>
+        <v>4027400952.226305</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1337575262770871</v>
+        <v>0.1651766772706975</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04899359622120333</v>
+        <v>0.04285009000850303</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2233352059.855375</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3376654046.336971</v>
+        <v>4578697445.003846</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1009768970782363</v>
+        <v>0.09516737190981917</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03395202866823994</v>
+        <v>0.0344777447247001</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>146</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1688327093.818005</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1258024009.989497</v>
+        <v>1646179776.037475</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1559215974258443</v>
+        <v>0.184516701198319</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02826200296399739</v>
+        <v>0.03964429946645001</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>629012074.6573197</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3488179447.671485</v>
+        <v>2655165810.134334</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1651009562902244</v>
+        <v>0.1179645341966389</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03326779371211962</v>
+        <v>0.04576033637605373</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>151</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1744089748.941504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1172867719.291268</v>
+        <v>1329561118.73285</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1414734619724184</v>
+        <v>0.1322834448322911</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0387638324468309</v>
+        <v>0.04464545727315296</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>586433915.6048453</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4711624517.617538</v>
+        <v>4911643091.234128</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1382316842457068</v>
+        <v>0.1115792152687314</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04888691550681175</v>
+        <v>0.04281580267880747</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>183</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2355812273.427482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3342943162.464816</v>
+        <v>3362087594.528418</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1344420846063359</v>
+        <v>0.1516246797298263</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03411498254678722</v>
+        <v>0.02668407894380607</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1671471590.023794</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4122180550.034826</v>
+        <v>4228693415.668838</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1047515382336443</v>
+        <v>0.1440962078634794</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03262489118305126</v>
+        <v>0.03524713332635053</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>144</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2061090348.703768</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4297463468.39443</v>
+        <v>3255237148.793606</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1879616129562826</v>
+        <v>0.1524286471933494</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02958167418915039</v>
+        <v>0.02583687005227946</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2148731722.280311</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1302863526.398139</v>
+        <v>1821346883.924425</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1466664201568906</v>
+        <v>0.1239292047265673</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03614441282301293</v>
+        <v>0.04122027462195733</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>651431834.6948236</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3900504766.874609</v>
+        <v>4169527932.528054</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1521372525237616</v>
+        <v>0.1786507997939301</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02387467644206413</v>
+        <v>0.02755366440395911</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>141</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1950252463.469986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1838495930.272533</v>
+        <v>1880213250.932956</v>
       </c>
       <c r="F58" t="n">
-        <v>0.179791827569177</v>
+        <v>0.1847921456710762</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0251164119844427</v>
+        <v>0.03911732379886985</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>919247965.3968118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5241783653.669909</v>
+        <v>4175209940.450998</v>
       </c>
       <c r="F59" t="n">
-        <v>0.114343212201628</v>
+        <v>0.1256162398408746</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04629435310745244</v>
+        <v>0.04556868633926055</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>122</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2620891742.885518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2301368119.362979</v>
+        <v>3349649313.983372</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2028142545102407</v>
+        <v>0.1788771095474282</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03097341083828598</v>
+        <v>0.02377552536178725</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>138</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1150684056.771319</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3129283527.950574</v>
+        <v>2387189117.257797</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1791614042633972</v>
+        <v>0.1661278651396188</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02164975965281262</v>
+        <v>0.02103902357462263</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>153</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1564641732.270386</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1912020981.575048</v>
+        <v>2102210390.799142</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1626993274838931</v>
+        <v>0.1419896480950893</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03493211992727095</v>
+        <v>0.03741125253218206</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>956010535.6866722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4900957440.406466</v>
+        <v>4384270899.626903</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1036261186693108</v>
+        <v>0.09989439794681383</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03421754948801454</v>
+        <v>0.03005093661552883</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>127</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2450478742.405816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3644991809.62394</v>
+        <v>3984224650.468767</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1713016156847383</v>
+        <v>0.1658729339106895</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03050091535711577</v>
+        <v>0.0228996765540783</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>138</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1822495915.725207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5611996348.482979</v>
+        <v>5288983838.145529</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1120959706935824</v>
+        <v>0.1404970004617068</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02560672513122665</v>
+        <v>0.02897111803155298</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>159</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2805998096.651658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4946323455.206474</v>
+        <v>4625202817.946907</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1447447152236031</v>
+        <v>0.1477643047435288</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03591803682305263</v>
+        <v>0.04732512283782273</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2473161751.906055</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2391604620.975801</v>
+        <v>2394915795.148849</v>
       </c>
       <c r="F67" t="n">
-        <v>0.101912959558015</v>
+        <v>0.09375010987452805</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04262331983157422</v>
+        <v>0.0316770816496045</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>141</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1195802380.25125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5136823288.777768</v>
+        <v>4442715255.319698</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603632730705216</v>
+        <v>0.1111761927348339</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04946174773683415</v>
+        <v>0.03583651977591552</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2568411709.07955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2286239068.258917</v>
+        <v>2245568192.285167</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1835199103580543</v>
+        <v>0.179403825121705</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05355252612370502</v>
+        <v>0.05776185710536291</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1143119576.112782</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2984698903.994868</v>
+        <v>3068182194.026784</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08589714968634141</v>
+        <v>0.09677372022666099</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03470343897988445</v>
+        <v>0.04023852753079602</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>128</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1492349427.988148</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4345874457.888537</v>
+        <v>5446804030.015284</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1323844325558421</v>
+        <v>0.1811952508309647</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02230202028822324</v>
+        <v>0.02398982377231363</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>162</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2172937285.836628</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1532524461.891615</v>
+        <v>1560543374.8329</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09919784702729685</v>
+        <v>0.07654573791371466</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04223402274695761</v>
+        <v>0.05064482101277489</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>766262252.674186</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2515521488.063381</v>
+        <v>2915437713.746025</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1007567261779206</v>
+        <v>0.06959195644241867</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04540159106809801</v>
+        <v>0.04232923798841355</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>168</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1257760784.398818</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2728179131.56004</v>
+        <v>3965298645.144353</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1287634216952508</v>
+        <v>0.1746973003723795</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03429300541593468</v>
+        <v>0.02273985160494483</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>151</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1364089654.694353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2020120284.877198</v>
+        <v>1935789813.400164</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1213329250990333</v>
+        <v>0.1191307962813616</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02628151925833597</v>
+        <v>0.03407092715132987</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1010060104.705721</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5191798357.807064</v>
+        <v>3325764133.464413</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07672304798505929</v>
+        <v>0.1132369269266505</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02787432954498685</v>
+        <v>0.02563899219464881</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2595899213.586639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1730771711.216051</v>
+        <v>2304960315.300022</v>
       </c>
       <c r="F77" t="n">
-        <v>0.112860608470358</v>
+        <v>0.1477833432890514</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03115363186190932</v>
+        <v>0.02292205934687983</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>865385877.4257231</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3396063262.614125</v>
+        <v>4679181026.179518</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1213846194704807</v>
+        <v>0.09100038131755286</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05654047107828488</v>
+        <v>0.05018070351546744</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>154</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1698031640.288813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1407208843.533242</v>
+        <v>1760707357.762619</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1139116940504579</v>
+        <v>0.1325210660731693</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02767951719320521</v>
+        <v>0.03143813924889827</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>703604439.7722577</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4462484666.335261</v>
+        <v>4897447425.880181</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07819275936884137</v>
+        <v>0.1039164037109814</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02786001924025202</v>
+        <v>0.03552445547484634</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2231242355.648906</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4558446979.97384</v>
+        <v>3442293599.09337</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1328476492728723</v>
+        <v>0.1034940574177043</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02827657978605236</v>
+        <v>0.02420637435284467</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2279223473.956222</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4916438425.140518</v>
+        <v>5376617446.499881</v>
       </c>
       <c r="F82" t="n">
-        <v>0.155470304069028</v>
+        <v>0.1404933544325717</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02408814136513278</v>
+        <v>0.02261697026807038</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>156</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2458219201.183984</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2470103941.308444</v>
+        <v>2224282775.724378</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1433119276453778</v>
+        <v>0.1550845923110751</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04143782527098054</v>
+        <v>0.03358919917680362</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1235052014.522281</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1859206496.647262</v>
+        <v>2408204850.548069</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1091457816902986</v>
+        <v>0.08874913620034873</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03493065465490302</v>
+        <v>0.05094188661002137</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>929603273.939654</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2565422416.203285</v>
+        <v>2405244336.460483</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1269099675675737</v>
+        <v>0.1542281585106508</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05298526849487344</v>
+        <v>0.03704253809852322</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>167</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1282711220.295148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2375174472.993158</v>
+        <v>2292153140.399611</v>
       </c>
       <c r="F86" t="n">
-        <v>0.117242688853934</v>
+        <v>0.1540223269294769</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02339328836121559</v>
+        <v>0.02433877580289829</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1187587316.320098</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1248222112.843816</v>
+        <v>1209372505.004283</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1225832339360671</v>
+        <v>0.147228731947737</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04300256982946411</v>
+        <v>0.03661983310120372</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>624111124.4022434</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3283357434.582411</v>
+        <v>3107849066.996687</v>
       </c>
       <c r="F88" t="n">
-        <v>0.159442132403098</v>
+        <v>0.1286459344932715</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03262366965307829</v>
+        <v>0.0286950351606529</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>176</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1641678775.751988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3385253502.250534</v>
+        <v>2818894818.949618</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1512926668059045</v>
+        <v>0.1308190419221286</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03398363886118082</v>
+        <v>0.02879457017690474</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>150</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1692626761.012951</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1660216887.264132</v>
+        <v>1536619261.179141</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1114173157169512</v>
+        <v>0.1179961203957295</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04265588112824015</v>
+        <v>0.05013332790629689</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>830108451.6772676</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1497094175.849358</v>
+        <v>1975864159.536072</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1960913227853802</v>
+        <v>0.167628799884745</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0473652826875958</v>
+        <v>0.04260793700033038</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>748547127.2724688</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2440362050.625709</v>
+        <v>2867104951.576038</v>
       </c>
       <c r="F92" t="n">
-        <v>0.104241768826038</v>
+        <v>0.07460919349974333</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03016126532710477</v>
+        <v>0.03607820516786024</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1220181004.824667</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4827095670.402889</v>
+        <v>4971726495.622743</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1170814391387359</v>
+        <v>0.1126293552192471</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04745420577204141</v>
+        <v>0.03372896894811218</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2413547782.363715</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2366937720.664609</v>
+        <v>2525313405.721888</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1590584850106903</v>
+        <v>0.1031903338410233</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04178588629401613</v>
+        <v>0.04134394292036461</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1183468906.447994</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3019897410.370128</v>
+        <v>2024723530.864699</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1100864811781812</v>
+        <v>0.104437222999088</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03731517896726087</v>
+        <v>0.05284764893803237</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1509948703.469995</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1457267906.391257</v>
+        <v>1971475507.82651</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08681353453619328</v>
+        <v>0.1368033723685061</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03183996658957267</v>
+        <v>0.03283858940595811</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>728633998.1307762</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3769449050.922574</v>
+        <v>5271759001.026477</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1353178556061321</v>
+        <v>0.1631478993822603</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0216867438893707</v>
+        <v>0.02664379752910034</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>142</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1884724563.310274</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2623268650.525117</v>
+        <v>3698189280.462898</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09202936941661918</v>
+        <v>0.09409259240131249</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02248890047287707</v>
+        <v>0.02354326968011601</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1311634284.460957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2916844845.062422</v>
+        <v>2508967250.743023</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1326234211883346</v>
+        <v>0.1206183206343926</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02849281743424207</v>
+        <v>0.02425939929892084</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>139</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1458422402.482472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4131381672.038346</v>
+        <v>4554999534.156775</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1254424864318014</v>
+        <v>0.167812910535595</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02335008268472763</v>
+        <v>0.01932924225829259</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2065690917.188303</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2707591046.716158</v>
+        <v>2863982327.873413</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1687922772153556</v>
+        <v>0.1660472907949697</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04990088885702763</v>
+        <v>0.04051709746950447</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>182</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1353795573.765836</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_444.xlsx
+++ b/output/fit_clients/fit_round_444.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2494816433.168227</v>
+        <v>1739890365.407061</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08616178702659189</v>
+        <v>0.08879689319684307</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03477729397013841</v>
+        <v>0.04034343414903978</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2413990484.384188</v>
+        <v>2326250187.022179</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1498642787201536</v>
+        <v>0.1206978504292923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0338691706450217</v>
+        <v>0.03178388949029681</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3394411589.550745</v>
+        <v>4759772918.952838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.138476380514354</v>
+        <v>0.156421991860633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02619177101774964</v>
+        <v>0.03134614973337273</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2825723596.368132</v>
+        <v>3440114097.587551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08408208764526592</v>
+        <v>0.08814134432612161</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03200270029651419</v>
+        <v>0.03988853803535846</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2126655274.794432</v>
+        <v>2138236694.193885</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1133322943146733</v>
+        <v>0.1191625495921137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05294125596012796</v>
+        <v>0.0407691748893064</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2255296319.229082</v>
+        <v>2845483652.245793</v>
       </c>
       <c r="F7" t="n">
-        <v>0.078120380701696</v>
+        <v>0.06995079026637908</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03898380787239202</v>
+        <v>0.03241555349675484</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2858035731.303766</v>
+        <v>3236860714.557309</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1447245964392535</v>
+        <v>0.1722776057698073</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02774834608782709</v>
+        <v>0.02818134155173504</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2030729992.998602</v>
+        <v>1721908552.513419</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1303724726501795</v>
+        <v>0.1321555443231418</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02284259701080249</v>
+        <v>0.02594726947318256</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5293407433.724033</v>
+        <v>4543021280.395476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1972877078744767</v>
+        <v>0.1762441353631285</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05038856114942358</v>
+        <v>0.0406440595552127</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3539801252.661569</v>
+        <v>3511482513.936879</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1901208057624562</v>
+        <v>0.1654553425206975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04029803479570158</v>
+        <v>0.03055725859470614</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2526794485.141132</v>
+        <v>2312209520.243282</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1741064829649767</v>
+        <v>0.1375249986697853</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03446360289457288</v>
+        <v>0.04571087036871086</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3847612183.87348</v>
+        <v>3638761985.59141</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06808895989871835</v>
+        <v>0.08417745807713872</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02604351159412753</v>
+        <v>0.02153383244684648</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3831546807.134385</v>
+        <v>3737173513.283234</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1531217877471904</v>
+        <v>0.1499313860600116</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03458492157917897</v>
+        <v>0.02740555113819814</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1595010881.178476</v>
+        <v>1444983397.302215</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1041476879164489</v>
+        <v>0.094990847667793</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04082007046178097</v>
+        <v>0.04656434022496612</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2387940500.006381</v>
+        <v>1760015816.566684</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08800159964301899</v>
+        <v>0.07976034224860748</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03345185241547959</v>
+        <v>0.05122691861448231</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3945165075.396226</v>
+        <v>5220598003.131333</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1342931476791432</v>
+        <v>0.1701212222226302</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04353521379179554</v>
+        <v>0.03568809198488452</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2983105253.379483</v>
+        <v>2920649426.472839</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1550772462043916</v>
+        <v>0.1779983318893059</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02248553306187959</v>
+        <v>0.03173718715832842</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1051604292.573635</v>
+        <v>1145145045.426677</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1437985283239286</v>
+        <v>0.1217418219311045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01885140052578907</v>
+        <v>0.01994322188191515</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1950794739.924173</v>
+        <v>1917489482.872883</v>
       </c>
       <c r="F20" t="n">
-        <v>0.125553296983782</v>
+        <v>0.1541648044289359</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01996678922361766</v>
+        <v>0.02933464709374004</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2642834382.829381</v>
+        <v>2622993843.972949</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06197255035883933</v>
+        <v>0.09867030772901496</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03526416896132643</v>
+        <v>0.0410044341435547</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3525683428.084767</v>
+        <v>2488941192.753043</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1026036779398187</v>
+        <v>0.1071691446439602</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05503488007790809</v>
+        <v>0.04882875622614758</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1251736122.505685</v>
+        <v>1453073505.86278</v>
       </c>
       <c r="F23" t="n">
-        <v>0.142114283933865</v>
+        <v>0.1470564266187022</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05377624194566628</v>
+        <v>0.04233194249313472</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2632431990.412803</v>
+        <v>3730929686.146682</v>
       </c>
       <c r="F24" t="n">
-        <v>0.135923598228694</v>
+        <v>0.1122608630261288</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03386265486170695</v>
+        <v>0.02394552772301994</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1166070863.842862</v>
+        <v>1085082043.771214</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0883569327447805</v>
+        <v>0.08494993537654692</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02032512443515344</v>
+        <v>0.02050305571478362</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>990375622.2466979</v>
+        <v>1271012102.528085</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08361003917433088</v>
+        <v>0.09040917279037015</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02762663469255895</v>
+        <v>0.03354903807993206</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4267938651.614749</v>
+        <v>3535376941.348141</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1083119100722257</v>
+        <v>0.1147915300180036</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01887673173402432</v>
+        <v>0.02027641175366525</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2969787344.139552</v>
+        <v>3301918346.326643</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1211065045188549</v>
+        <v>0.1134674655320952</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04835283767774205</v>
+        <v>0.04755165798979726</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4978550510.149504</v>
+        <v>3586130930.557335</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1357212540257239</v>
+        <v>0.1176366513471596</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03855828968383087</v>
+        <v>0.0281100999200988</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2289847893.290688</v>
+        <v>2086607993.660365</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1156023032022419</v>
+        <v>0.1245186812250147</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03924526668474557</v>
+        <v>0.03187425230048375</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1091614374.576812</v>
+        <v>1427839578.868075</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1107077764130216</v>
+        <v>0.1121393792462867</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03573359209609196</v>
+        <v>0.03629673542465647</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1852233875.096835</v>
+        <v>1818308338.413204</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08820746735557819</v>
+        <v>0.07552480932925663</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03371947318578151</v>
+        <v>0.0286378266687418</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2919261455.716594</v>
+        <v>2518860657.584318</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1801091239553625</v>
+        <v>0.1467012439492726</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03853515014143718</v>
+        <v>0.06082612604036523</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1365624379.670025</v>
+        <v>1255818071.259647</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07725129497790011</v>
+        <v>0.08072207520078556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0199936588294221</v>
+        <v>0.02219526777052361</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1294396387.867479</v>
+        <v>922646685.7464615</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07425197405292228</v>
+        <v>0.08727856483478937</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03674625156299505</v>
+        <v>0.04354564508926706</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2305109061.070464</v>
+        <v>2711422958.020472</v>
       </c>
       <c r="F36" t="n">
-        <v>0.142574797558224</v>
+        <v>0.1232796360704858</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0201095290327258</v>
+        <v>0.02235795370932343</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2023360499.673647</v>
+        <v>1968540726.471528</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07662305079746844</v>
+        <v>0.07506326351292061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0408823950262286</v>
+        <v>0.03810873543751896</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1789425353.687876</v>
+        <v>1743960894.27688</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1208252722386802</v>
+        <v>0.1211727605396739</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03923833497494327</v>
+        <v>0.03705849518724901</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1899534616.262105</v>
+        <v>2123778495.356093</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1776325480743827</v>
+        <v>0.1387519384881789</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02463807026460817</v>
+        <v>0.02254121273168735</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1263515985.2627</v>
+        <v>1401864408.966682</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1140146846584694</v>
+        <v>0.1260269627656004</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04214704993339071</v>
+        <v>0.04392787310498441</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1876161691.898877</v>
+        <v>2399899159.028305</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1294950760676842</v>
+        <v>0.1298157833474818</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04490331117339251</v>
+        <v>0.03311227940671339</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2699702924.186124</v>
+        <v>4213849476.451861</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1033364341777182</v>
+        <v>0.09507363590962792</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02908647678541541</v>
+        <v>0.03399390322891758</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2782090320.326307</v>
+        <v>1949395439.293134</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1724448894663957</v>
+        <v>0.1742656702610124</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0213830367265832</v>
+        <v>0.01956785137406902</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1654666496.437498</v>
+        <v>2203474688.901652</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07562292320732852</v>
+        <v>0.06361032874991614</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03298132861422465</v>
+        <v>0.03482308347051439</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1654227697.301142</v>
+        <v>2067292292.523161</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1689311287792771</v>
+        <v>0.1350016804458766</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05188219187221632</v>
+        <v>0.03916155362884355</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4615793445.075425</v>
+        <v>5328132109.48374</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1079693947319511</v>
+        <v>0.1123681104064545</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06112636581998548</v>
+        <v>0.04265356216875215</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4027400952.226305</v>
+        <v>4234196612.443923</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1651766772706975</v>
+        <v>0.1251052388752913</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04285009000850303</v>
+        <v>0.04935300330998157</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4578697445.003846</v>
+        <v>3170522599.735627</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09516737190981917</v>
+        <v>0.08002101913336275</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0344777447247001</v>
+        <v>0.03406412591418512</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1646179776.037475</v>
+        <v>1539002359.580525</v>
       </c>
       <c r="F49" t="n">
-        <v>0.184516701198319</v>
+        <v>0.1883203247191903</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03964429946645001</v>
+        <v>0.04051401026297981</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2655165810.134334</v>
+        <v>3354793485.082717</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1179645341966389</v>
+        <v>0.123084993865715</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04576033637605373</v>
+        <v>0.05350108882428037</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1329561118.73285</v>
+        <v>1224114608.971755</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1322834448322911</v>
+        <v>0.1865608360521334</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04464545727315296</v>
+        <v>0.05319687080226548</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4911643091.234128</v>
+        <v>3584038948.930418</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1115792152687314</v>
+        <v>0.1027736474791185</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04281580267880747</v>
+        <v>0.04498949003053335</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3362087594.528418</v>
+        <v>2352303618.926544</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1516246797298263</v>
+        <v>0.1334426498671918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02668407894380607</v>
+        <v>0.03342497094792914</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4228693415.668838</v>
+        <v>3224219046.484713</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1440962078634794</v>
+        <v>0.1222168326071469</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03524713332635053</v>
+        <v>0.03455974003467628</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3255237148.793606</v>
+        <v>3876735584.606633</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1524286471933494</v>
+        <v>0.1474888092820474</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02583687005227946</v>
+        <v>0.02931836586350967</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1821346883.924425</v>
+        <v>1641568062.816363</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1239292047265673</v>
+        <v>0.1455624731666386</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04122027462195733</v>
+        <v>0.04940139053472815</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4169527932.528054</v>
+        <v>3513171741.602265</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1786507997939301</v>
+        <v>0.1479836534389496</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02755366440395911</v>
+        <v>0.02423236485678999</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1880213250.932956</v>
+        <v>1820262790.927496</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1847921456710762</v>
+        <v>0.2028004293031152</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03911732379886985</v>
+        <v>0.02944784387135685</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4175209940.450998</v>
+        <v>4886994250.798167</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1256162398408746</v>
+        <v>0.1304822420491838</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04556868633926055</v>
+        <v>0.04839979410130334</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3349649313.983372</v>
+        <v>2739845423.007641</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1788771095474282</v>
+        <v>0.2051604125855252</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02377552536178725</v>
+        <v>0.028060581491697</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2387189117.257797</v>
+        <v>2282034406.249568</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1661278651396188</v>
+        <v>0.1396593166898149</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02103902357462263</v>
+        <v>0.02440398452820937</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2102210390.799142</v>
+        <v>1465355532.90935</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1419896480950893</v>
+        <v>0.13613308747706</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03741125253218206</v>
+        <v>0.04937231835916025</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4384270899.626903</v>
+        <v>5161354343.029094</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09989439794681383</v>
+        <v>0.08764209384788292</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03005093661552883</v>
+        <v>0.03370758070280808</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3984224650.468767</v>
+        <v>3594749911.608071</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1658729339106895</v>
+        <v>0.1641601254818383</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0228996765540783</v>
+        <v>0.03339853399028891</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5288983838.145529</v>
+        <v>4289560386.713911</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1404970004617068</v>
+        <v>0.1298908933901844</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02897111803155298</v>
+        <v>0.03169923025927472</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4625202817.946907</v>
+        <v>4370079943.619663</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1477643047435288</v>
+        <v>0.1556655436990144</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04732512283782273</v>
+        <v>0.03189256708358846</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2394915795.148849</v>
+        <v>3377693670.12055</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09375010987452805</v>
+        <v>0.07538688762398488</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0316770816496045</v>
+        <v>0.04185869042905486</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4442715255.319698</v>
+        <v>5108732013.627243</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1111761927348339</v>
+        <v>0.09757531261972618</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03583651977591552</v>
+        <v>0.0323896957883678</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2245568192.285167</v>
+        <v>2121440345.624122</v>
       </c>
       <c r="F69" t="n">
-        <v>0.179403825121705</v>
+        <v>0.1259675643128303</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05776185710536291</v>
+        <v>0.03973959497503875</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3068182194.026784</v>
+        <v>2432778216.658602</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09677372022666099</v>
+        <v>0.0834566169928392</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04023852753079602</v>
+        <v>0.0412696216224382</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5446804030.015284</v>
+        <v>5638381953.388532</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1811952508309647</v>
+        <v>0.1622433298681302</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02398982377231363</v>
+        <v>0.03263775738585287</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1560543374.8329</v>
+        <v>1971779267.114719</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07654573791371466</v>
+        <v>0.1064047062228292</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05064482101277489</v>
+        <v>0.04466869791620724</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2915437713.746025</v>
+        <v>3564171146.216815</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06959195644241867</v>
+        <v>0.07910120920921954</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04232923798841355</v>
+        <v>0.03380276871065469</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3965298645.144353</v>
+        <v>3583328221.410983</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1746973003723795</v>
+        <v>0.1244456712875963</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02273985160494483</v>
+        <v>0.03486806837537949</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1935789813.400164</v>
+        <v>2438951592.578556</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1191307962813616</v>
+        <v>0.1592681687306959</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03407092715132987</v>
+        <v>0.03548137078347015</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3325764133.464413</v>
+        <v>4074480172.39151</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1132369269266505</v>
+        <v>0.1250356429182457</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02563899219464881</v>
+        <v>0.02908620227518165</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2304960315.300022</v>
+        <v>1991251018.495746</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1477833432890514</v>
+        <v>0.1659810528638041</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02292205934687983</v>
+        <v>0.02626402682776243</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4679181026.179518</v>
+        <v>3695135088.688719</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09100038131755286</v>
+        <v>0.11134171477042</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05018070351546744</v>
+        <v>0.04495414054132937</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1760707357.762619</v>
+        <v>1533208073.824056</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1325210660731693</v>
+        <v>0.1285332482655316</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03143813924889827</v>
+        <v>0.0252404636804005</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4897447425.880181</v>
+        <v>4167724441.521134</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1039164037109814</v>
+        <v>0.09403834506768506</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03552445547484634</v>
+        <v>0.02575610900814374</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3442293599.09337</v>
+        <v>3557790443.268543</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1034940574177043</v>
+        <v>0.1037202805508786</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02420637435284467</v>
+        <v>0.02329185462368851</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5376617446.499881</v>
+        <v>3457015260.612679</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1404933544325717</v>
+        <v>0.2165726719476095</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02261697026807038</v>
+        <v>0.01955706886326566</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2224282775.724378</v>
+        <v>2032670229.103275</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1550845923110751</v>
+        <v>0.1375028089620714</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03358919917680362</v>
+        <v>0.03393509958672272</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2408204850.548069</v>
+        <v>2115126289.626181</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08874913620034873</v>
+        <v>0.09674820002170888</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05094188661002137</v>
+        <v>0.03779657502131844</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2405244336.460483</v>
+        <v>3079800704.727767</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1542281585106508</v>
+        <v>0.1732007285298309</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03704253809852322</v>
+        <v>0.05653357058796178</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2292153140.399611</v>
+        <v>2117482572.982166</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1540223269294769</v>
+        <v>0.144741540238407</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02433877580289829</v>
+        <v>0.02654337665466531</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1209372505.004283</v>
+        <v>993409161.413026</v>
       </c>
       <c r="F87" t="n">
-        <v>0.147228731947737</v>
+        <v>0.1822950775156094</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03661983310120372</v>
+        <v>0.03082510812281873</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3107849066.996687</v>
+        <v>2418437376.690801</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1286459344932715</v>
+        <v>0.1296012864932392</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0286950351606529</v>
+        <v>0.03059307151806253</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2818894818.949618</v>
+        <v>3189369057.244013</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1308190419221286</v>
+        <v>0.1478458636699245</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02879457017690474</v>
+        <v>0.03635218237678903</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1536619261.179141</v>
+        <v>1718973145.202249</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1179961203957295</v>
+        <v>0.09037241945443755</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05013332790629689</v>
+        <v>0.03938532179703964</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1975864159.536072</v>
+        <v>1362308067.231024</v>
       </c>
       <c r="F91" t="n">
-        <v>0.167628799884745</v>
+        <v>0.1190437864241436</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04260793700033038</v>
+        <v>0.05578936013333596</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2867104951.576038</v>
+        <v>2192349266.429317</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07460919349974333</v>
+        <v>0.09721318586154772</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03607820516786024</v>
+        <v>0.03067358374055161</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4971726495.622743</v>
+        <v>4238687050.638087</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1126293552192471</v>
+        <v>0.1391004199065514</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03372896894811218</v>
+        <v>0.03895783262026658</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2525313405.721888</v>
+        <v>1634334900.867002</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1031903338410233</v>
+        <v>0.1351155838822179</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04134394292036461</v>
+        <v>0.03871116172637888</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2024723530.864699</v>
+        <v>2607586739.197358</v>
       </c>
       <c r="F95" t="n">
-        <v>0.104437222999088</v>
+        <v>0.1382366420693003</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05284764893803237</v>
+        <v>0.03519129883308204</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1971475507.82651</v>
+        <v>1632787211.591327</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1368033723685061</v>
+        <v>0.0886077269605884</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03283858940595811</v>
+        <v>0.04332893282618815</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5271759001.026477</v>
+        <v>4503395648.025232</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1631478993822603</v>
+        <v>0.1652221694870016</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02664379752910034</v>
+        <v>0.02861450626866449</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3698189280.462898</v>
+        <v>3679890192.33955</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09409259240131249</v>
+        <v>0.07985522142443374</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02354326968011601</v>
+        <v>0.02494903921972326</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2508967250.743023</v>
+        <v>2815448991.831273</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1206183206343926</v>
+        <v>0.1074178814428599</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02425939929892084</v>
+        <v>0.03320780025503396</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4554999534.156775</v>
+        <v>4087630091.895648</v>
       </c>
       <c r="F100" t="n">
-        <v>0.167812910535595</v>
+        <v>0.1137276929145138</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01932924225829259</v>
+        <v>0.02061311137816964</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2863982327.873413</v>
+        <v>3576692058.061701</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1660472907949697</v>
+        <v>0.1895378426983148</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04051709746950447</v>
+        <v>0.04391393910382247</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_444.xlsx
+++ b/output/fit_clients/fit_round_444.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1739890365.407061</v>
+        <v>1599303951.419615</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08879689319684307</v>
+        <v>0.07873835381603256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04034343414903978</v>
+        <v>0.02933705323266613</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2326250187.022179</v>
+        <v>2575360017.129312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1206978504292923</v>
+        <v>0.1509799822379468</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03178388949029681</v>
+        <v>0.03641650214178976</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4759772918.952838</v>
+        <v>3842505780.406014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.156421991860633</v>
+        <v>0.1078047426350147</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03134614973337273</v>
+        <v>0.02869765252521185</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>225</v>
+      </c>
+      <c r="J4" t="n">
+        <v>443</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36.3557166247086</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3440114097.587551</v>
+        <v>4095144098.993654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08814134432612161</v>
+        <v>0.06777896914938242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03988853803535846</v>
+        <v>0.0317114586309717</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>185</v>
+      </c>
+      <c r="J5" t="n">
+        <v>444</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46.37741548278481</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2138236694.193885</v>
+        <v>1922638845.638883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1191625495921137</v>
+        <v>0.1430353523406853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0407691748893064</v>
+        <v>0.05518761385647721</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2845483652.245793</v>
+        <v>2525316981.809702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06995079026637908</v>
+        <v>0.07365639904256305</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03241555349675484</v>
+        <v>0.04750104505000994</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3236860714.557309</v>
+        <v>3866882359.363427</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1722776057698073</v>
+        <v>0.2201765256767379</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02818134155173504</v>
+        <v>0.02983719535150831</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>121</v>
+      </c>
+      <c r="J8" t="n">
+        <v>444</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1721908552.513419</v>
+        <v>2078714855.103387</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1321555443231418</v>
+        <v>0.1300259631289029</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02594726947318256</v>
+        <v>0.02997093899413374</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4543021280.395476</v>
+        <v>5272816136.30836</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1762441353631285</v>
+        <v>0.1434081393883451</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0406440595552127</v>
+        <v>0.04196593869631592</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>347</v>
+      </c>
+      <c r="J10" t="n">
+        <v>443</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35.52257562883968</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3511482513.936879</v>
+        <v>2594205100.394146</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1654553425206975</v>
+        <v>0.173925900503263</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03055725859470614</v>
+        <v>0.03521913719622243</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>184</v>
+      </c>
+      <c r="J11" t="n">
+        <v>441</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2312209520.243282</v>
+        <v>2678963642.952031</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1375249986697853</v>
+        <v>0.1496132918002685</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04571087036871086</v>
+        <v>0.04591406042987794</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3638761985.59141</v>
+        <v>3557460112.364198</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08417745807713872</v>
+        <v>0.06578593285300886</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02153383244684648</v>
+        <v>0.02051281685668148</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>230</v>
+      </c>
+      <c r="J13" t="n">
+        <v>444</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3737173513.283234</v>
+        <v>3364449673.966351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1499313860600116</v>
+        <v>0.1327827554179928</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02740555113819814</v>
+        <v>0.03210787617604697</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>97</v>
+      </c>
+      <c r="J14" t="n">
+        <v>444</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44.77547905639302</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1444983397.302215</v>
+        <v>1428161804.064902</v>
       </c>
       <c r="F15" t="n">
-        <v>0.094990847667793</v>
+        <v>0.0745595152537015</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04656434022496612</v>
+        <v>0.04603373079981307</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1760015816.566684</v>
+        <v>2114051552.558439</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07976034224860748</v>
+        <v>0.09211396710441858</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05122691861448231</v>
+        <v>0.04255315796172483</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5220598003.131333</v>
+        <v>4099345613.591265</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1701212222226302</v>
+        <v>0.1254538020970009</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03568809198488452</v>
+        <v>0.0418141896062803</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>216</v>
+      </c>
+      <c r="J17" t="n">
+        <v>443</v>
+      </c>
+      <c r="K17" t="n">
+        <v>37.88189014989089</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2920649426.472839</v>
+        <v>2785846611.495743</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1779983318893059</v>
+        <v>0.1365653253722226</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03173718715832842</v>
+        <v>0.03039075962012252</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>115</v>
+      </c>
+      <c r="J18" t="n">
+        <v>441</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1145145045.426677</v>
+        <v>1285414362.617748</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1217418219311045</v>
+        <v>0.1310651557796675</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01994322188191515</v>
+        <v>0.02568594284293078</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1917489482.872883</v>
+        <v>2083783512.736725</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1541648044289359</v>
+        <v>0.1052554630573325</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02933464709374004</v>
+        <v>0.02443193578522062</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2622993843.972949</v>
+        <v>2521871417.426531</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09867030772901496</v>
+        <v>0.07633891498891096</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0410044341435547</v>
+        <v>0.02796832101684696</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2488941192.753043</v>
+        <v>3052283209.261407</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1071691446439602</v>
+        <v>0.1226268778612289</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04882875622614758</v>
+        <v>0.05522156163119142</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1453073505.86278</v>
+        <v>1109969922.67511</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1470564266187022</v>
+        <v>0.1395444196140233</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04233194249313472</v>
+        <v>0.05302466324487301</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3730929686.146682</v>
+        <v>3891190529.710579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1122608630261288</v>
+        <v>0.1136801540454254</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02394552772301994</v>
+        <v>0.02342092915401176</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>141</v>
+      </c>
+      <c r="J24" t="n">
+        <v>444</v>
+      </c>
+      <c r="K24" t="n">
+        <v>42.91828977058247</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1085082043.771214</v>
+        <v>1130896467.575686</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08494993537654692</v>
+        <v>0.1127439220545287</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02050305571478362</v>
+        <v>0.02432848764769266</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1271012102.528085</v>
+        <v>1014551829.797255</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09040917279037015</v>
+        <v>0.1217805590112779</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03354903807993206</v>
+        <v>0.03918240366444301</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3535376941.348141</v>
+        <v>3235528333.128019</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1147915300180036</v>
+        <v>0.1152932747328592</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02027641175366525</v>
+        <v>0.02587104535094472</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>193</v>
+      </c>
+      <c r="J27" t="n">
+        <v>443</v>
+      </c>
+      <c r="K27" t="n">
+        <v>26.80395992617212</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3301918346.326643</v>
+        <v>2714442518.384765</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1134674655320952</v>
+        <v>0.1048076529974714</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04755165798979726</v>
+        <v>0.04086340724375027</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3586130930.557335</v>
+        <v>5625498027.446478</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1176366513471596</v>
+        <v>0.09251325439420149</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0281100999200988</v>
+        <v>0.03940473267947014</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>363</v>
+      </c>
+      <c r="J29" t="n">
+        <v>443</v>
+      </c>
+      <c r="K29" t="n">
+        <v>33.39300045420397</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2086607993.660365</v>
+        <v>1522801257.121844</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1245186812250147</v>
+        <v>0.136628754156062</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03187425230048375</v>
+        <v>0.03976503089577779</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1427839578.868075</v>
+        <v>1213389111.879917</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1121393792462867</v>
+        <v>0.08438358884191029</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03629673542465647</v>
+        <v>0.04153071409856151</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1818308338.413204</v>
+        <v>1833110734.804422</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07552480932925663</v>
+        <v>0.08242140189118137</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0286378266687418</v>
+        <v>0.03319205188101074</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2518860657.584318</v>
+        <v>2641073702.18152</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1467012439492726</v>
+        <v>0.1901945045138483</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06082612604036523</v>
+        <v>0.04305465572096723</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1255818071.259647</v>
+        <v>1128313100.13457</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08072207520078556</v>
+        <v>0.1154931018744196</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02219526777052361</v>
+        <v>0.01723996204925502</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>922646685.7464615</v>
+        <v>1192981085.68256</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08727856483478937</v>
+        <v>0.116165034976045</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04354564508926706</v>
+        <v>0.04394930729098662</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2711422958.020472</v>
+        <v>2949648915.096404</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1232796360704858</v>
+        <v>0.1650038766199797</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02235795370932343</v>
+        <v>0.02678816821092923</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1968540726.471528</v>
+        <v>1975412030.509352</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07506326351292061</v>
+        <v>0.07061593825698505</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03810873543751896</v>
+        <v>0.04201113548525529</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1743960894.27688</v>
+        <v>1834770870.221148</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1211727605396739</v>
+        <v>0.1066680528375756</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03705849518724901</v>
+        <v>0.02486375542668206</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2123778495.356093</v>
+        <v>1950025730.289071</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1387519384881789</v>
+        <v>0.1660415457972842</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02254121273168735</v>
+        <v>0.02693224912764539</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1401864408.966682</v>
+        <v>1468377367.354561</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1260269627656004</v>
+        <v>0.1387209798997577</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04392787310498441</v>
+        <v>0.04863356713960005</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2399899159.028305</v>
+        <v>2202540508.938443</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1298157833474818</v>
+        <v>0.1182423849187494</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03311227940671339</v>
+        <v>0.03857649268312184</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4213849476.451861</v>
+        <v>3968147052.774201</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09507363590962792</v>
+        <v>0.123082950130676</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03399390322891758</v>
+        <v>0.02815823974825216</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>192</v>
+      </c>
+      <c r="J42" t="n">
+        <v>444</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1949395439.293134</v>
+        <v>1928040798.36908</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1742656702610124</v>
+        <v>0.1570044579401602</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01956785137406902</v>
+        <v>0.02228966707906811</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2203474688.901652</v>
+        <v>2267569038.97829</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06361032874991614</v>
+        <v>0.09179309677533895</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03482308347051439</v>
+        <v>0.03149663850806679</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2067292292.523161</v>
+        <v>2316775828.806407</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1350016804458766</v>
+        <v>0.1698241644109974</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03916155362884355</v>
+        <v>0.05280593307035622</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5328132109.48374</v>
+        <v>4063818809.14472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1123681104064545</v>
+        <v>0.1090827487531193</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04265356216875215</v>
+        <v>0.05881018046877403</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>264</v>
+      </c>
+      <c r="J46" t="n">
+        <v>443</v>
+      </c>
+      <c r="K46" t="n">
+        <v>37.39676242428643</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4234196612.443923</v>
+        <v>3311075439.535417</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1251052388752913</v>
+        <v>0.1528139122547934</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04935300330998157</v>
+        <v>0.036182906182386</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>200</v>
+      </c>
+      <c r="J47" t="n">
+        <v>443</v>
+      </c>
+      <c r="K47" t="n">
+        <v>27.90122409538143</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2131,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3170522599.735627</v>
+        <v>4038901505.158819</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08002101913336275</v>
+        <v>0.09648314249095163</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03406412591418512</v>
+        <v>0.02943660830781451</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>223</v>
+      </c>
+      <c r="J48" t="n">
+        <v>444</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1539002359.580525</v>
+        <v>1410995665.782801</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1883203247191903</v>
+        <v>0.1552442357645709</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04051401026297981</v>
+        <v>0.03526177605003345</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3354793485.082717</v>
+        <v>3767842266.773509</v>
       </c>
       <c r="F50" t="n">
-        <v>0.123084993865715</v>
+        <v>0.1585485212555206</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05350108882428037</v>
+        <v>0.04156707452870001</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>158</v>
+      </c>
+      <c r="J50" t="n">
+        <v>444</v>
+      </c>
+      <c r="K50" t="n">
+        <v>39.92618204654931</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1224114608.971755</v>
+        <v>929933961.4072723</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1865608360521334</v>
+        <v>0.1666360343806139</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05319687080226548</v>
+        <v>0.05430152541470805</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2273,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3584038948.930418</v>
+        <v>4177175762.885845</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1027736474791185</v>
+        <v>0.1147682644094297</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04498949003053335</v>
+        <v>0.04806565382975411</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>253</v>
+      </c>
+      <c r="J52" t="n">
+        <v>444</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2352303618.926544</v>
+        <v>3108253175.454143</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1334426498671918</v>
+        <v>0.1642327352543847</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03342497094792914</v>
+        <v>0.02773996825636801</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>67</v>
+      </c>
+      <c r="J53" t="n">
+        <v>439</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2343,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3224219046.484713</v>
+        <v>3126064034.017864</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1222168326071469</v>
+        <v>0.1540746215991373</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03455974003467628</v>
+        <v>0.04437836264242161</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>234</v>
+      </c>
+      <c r="J54" t="n">
+        <v>441</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3876735584.606633</v>
+        <v>4556424276.542056</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1474888092820474</v>
+        <v>0.2143644438180108</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02931836586350967</v>
+        <v>0.03121762356049577</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>220</v>
+      </c>
+      <c r="J55" t="n">
+        <v>444</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1641568062.816363</v>
+        <v>1272223884.263144</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1455624731666386</v>
+        <v>0.14468749974793</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04940139053472815</v>
+        <v>0.04371487831972286</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3513171741.602265</v>
+        <v>4145670720.182979</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1479836534389496</v>
+        <v>0.1683779758809652</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02423236485678999</v>
+        <v>0.02426975028238086</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>192</v>
+      </c>
+      <c r="J57" t="n">
+        <v>444</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1820262790.927496</v>
+        <v>1846191570.737758</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2028004293031152</v>
+        <v>0.1225548506800011</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02944784387135685</v>
+        <v>0.03931199583361109</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4886994250.798167</v>
+        <v>4050663800.081319</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1304822420491838</v>
+        <v>0.1164172282894544</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04839979410130334</v>
+        <v>0.03105285305194039</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>217</v>
+      </c>
+      <c r="J59" t="n">
+        <v>443</v>
+      </c>
+      <c r="K59" t="n">
+        <v>37.37789845090411</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2739845423.007641</v>
+        <v>2709268583.81366</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2051604125855252</v>
+        <v>0.1577112378444694</v>
       </c>
       <c r="G60" t="n">
-        <v>0.028060581491697</v>
+        <v>0.02237825451424386</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2282034406.249568</v>
+        <v>2147247638.901878</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1396593166898149</v>
+        <v>0.1489488685236631</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02440398452820937</v>
+        <v>0.0213049057915309</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1465355532.90935</v>
+        <v>1897549561.864361</v>
       </c>
       <c r="F62" t="n">
-        <v>0.13613308747706</v>
+        <v>0.1330153044403085</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04937231835916025</v>
+        <v>0.04154636450012544</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5161354343.029094</v>
+        <v>4129529008.062131</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08764209384788292</v>
+        <v>0.07027511917114099</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03370758070280808</v>
+        <v>0.03616713722141655</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>221</v>
+      </c>
+      <c r="J63" t="n">
+        <v>444</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3594749911.608071</v>
+        <v>4859132381.079967</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1641601254818383</v>
+        <v>0.1755670216619154</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03339853399028891</v>
+        <v>0.0337593298951262</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>222</v>
+      </c>
+      <c r="J64" t="n">
+        <v>444</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2730,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4289560386.713911</v>
+        <v>5136262291.66588</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1298908933901844</v>
+        <v>0.121739119632539</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03169923025927472</v>
+        <v>0.02686247931034293</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>319</v>
+      </c>
+      <c r="J65" t="n">
+        <v>444</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4370079943.619663</v>
+        <v>3727484824.447817</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1556655436990144</v>
+        <v>0.1077372873116466</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03189256708358846</v>
+        <v>0.04523769825953118</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>219</v>
+      </c>
+      <c r="J66" t="n">
+        <v>443</v>
+      </c>
+      <c r="K66" t="n">
+        <v>31.15259246604858</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3377693670.12055</v>
+        <v>2286703273.686111</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07538688762398488</v>
+        <v>0.08421717097118948</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04185869042905486</v>
+        <v>0.04025977094344853</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5108732013.627243</v>
+        <v>5896675977.869231</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09757531261972618</v>
+        <v>0.1224887193686555</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0323896957883678</v>
+        <v>0.04910368636221464</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>242</v>
+      </c>
+      <c r="J68" t="n">
+        <v>443</v>
+      </c>
+      <c r="K68" t="n">
+        <v>34.95995941764084</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2121440345.624122</v>
+        <v>1594472510.18398</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1259675643128303</v>
+        <v>0.1353939652703409</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03973959497503875</v>
+        <v>0.04918798648345129</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2432778216.658602</v>
+        <v>2421227845.403449</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0834566169928392</v>
+        <v>0.08287553611045678</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0412696216224382</v>
+        <v>0.03345723640938004</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5638381953.388532</v>
+        <v>3975973646.595191</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1622433298681302</v>
+        <v>0.1619927217212554</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03263775738585287</v>
+        <v>0.03178161449472888</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>305</v>
+      </c>
+      <c r="J71" t="n">
+        <v>444</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1971779267.114719</v>
+        <v>1629222501.241449</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1064047062228292</v>
+        <v>0.06629120505551922</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04466869791620724</v>
+        <v>0.05131571904023756</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3564171146.216815</v>
+        <v>2310745584.940639</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07910120920921954</v>
+        <v>0.1103866163560709</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03380276871065469</v>
+        <v>0.04082283529055479</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="n">
+        <v>27.31258612064047</v>
       </c>
     </row>
     <row r="74">
@@ -2502,16 +3051,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3583328221.410983</v>
+        <v>3160962335.11887</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1244456712875963</v>
+        <v>0.153902884270043</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03486806837537949</v>
+        <v>0.0257388355137173</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>128</v>
+      </c>
+      <c r="J74" t="n">
+        <v>443</v>
+      </c>
+      <c r="K74" t="n">
+        <v>35.70953118174577</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2438951592.578556</v>
+        <v>1982927614.213584</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1592681687306959</v>
+        <v>0.1125157522371478</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03548137078347015</v>
+        <v>0.03352676793278508</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4074480172.39151</v>
+        <v>3665877298.727406</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1250356429182457</v>
+        <v>0.07655909742401397</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02908620227518165</v>
+        <v>0.02578406219578095</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>212</v>
+      </c>
+      <c r="J76" t="n">
+        <v>443</v>
+      </c>
+      <c r="K76" t="n">
+        <v>33.71879456532169</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1991251018.495746</v>
+        <v>2067877899.526601</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1659810528638041</v>
+        <v>0.1344165242370901</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02626402682776243</v>
+        <v>0.03074013257134941</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3695135088.688719</v>
+        <v>3515248433.962762</v>
       </c>
       <c r="F78" t="n">
-        <v>0.11134171477042</v>
+        <v>0.09946214641806722</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04495414054132937</v>
+        <v>0.05398607986151373</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>222</v>
+      </c>
+      <c r="J78" t="n">
+        <v>442</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1533208073.824056</v>
+        <v>1909735660.899207</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1285332482655316</v>
+        <v>0.1224799564647697</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0252404636804005</v>
+        <v>0.03244454389153043</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4167724441.521134</v>
+        <v>4426039684.10786</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09403834506768506</v>
+        <v>0.08764389312029147</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02575610900814374</v>
+        <v>0.02677180125433264</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>216</v>
+      </c>
+      <c r="J80" t="n">
+        <v>444</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3557790443.268543</v>
+        <v>4124379187.989179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1037202805508786</v>
+        <v>0.1091123495202755</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02329185462368851</v>
+        <v>0.03271223707536169</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>206</v>
+      </c>
+      <c r="J81" t="n">
+        <v>444</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3457015260.612679</v>
+        <v>5685337844.603941</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2165726719476095</v>
+        <v>0.1853619275576546</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01955706886326566</v>
+        <v>0.02588530766020561</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>297</v>
+      </c>
+      <c r="J82" t="n">
+        <v>444</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2032670229.103275</v>
+        <v>2304151485.714187</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1375028089620714</v>
+        <v>0.1445505985913262</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03393509958672272</v>
+        <v>0.04392935582262782</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2115126289.626181</v>
+        <v>2409205560.639992</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09674820002170888</v>
+        <v>0.1120020901363961</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03779657502131844</v>
+        <v>0.03821421786762742</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3079800704.727767</v>
+        <v>2301345658.3569</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1732007285298309</v>
+        <v>0.1780676682953714</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05653357058796178</v>
+        <v>0.0475256154923785</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>438</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2117482572.982166</v>
+        <v>2788509987.000528</v>
       </c>
       <c r="F86" t="n">
-        <v>0.144741540238407</v>
+        <v>0.1330033136128737</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02654337665466531</v>
+        <v>0.02527408243523284</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>993409161.413026</v>
+        <v>1221514676.458183</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1822950775156094</v>
+        <v>0.1360378936240284</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03082510812281873</v>
+        <v>0.03303234540039282</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2418437376.690801</v>
+        <v>2879797090.520886</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1296012864932392</v>
+        <v>0.1781904345181186</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03059307151806253</v>
+        <v>0.03198761335397732</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3189369057.244013</v>
+        <v>2562029755.089449</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1478458636699245</v>
+        <v>0.1470311102999838</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03635218237678903</v>
+        <v>0.03315076777733157</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1718973145.202249</v>
+        <v>2043836696.57184</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09037241945443755</v>
+        <v>0.1352675458565226</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03938532179703964</v>
+        <v>0.05102095697590776</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1362308067.231024</v>
+        <v>1575145100.030832</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1190437864241436</v>
+        <v>0.1654982792550375</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05578936013333596</v>
+        <v>0.04623611931664713</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2192349266.429317</v>
+        <v>1921791574.453034</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09721318586154772</v>
+        <v>0.09764270035866626</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03067358374055161</v>
+        <v>0.03825157086156197</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4238687050.638087</v>
+        <v>4447813362.14126</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1391004199065514</v>
+        <v>0.1423667769023542</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03895783262026658</v>
+        <v>0.04122322872594399</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>213</v>
+      </c>
+      <c r="J93" t="n">
+        <v>443</v>
+      </c>
+      <c r="K93" t="n">
+        <v>37.82560300663798</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1634334900.867002</v>
+        <v>2189472642.893445</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1351155838822179</v>
+        <v>0.1109329522776308</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03871116172637888</v>
+        <v>0.0313831403116405</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2607586739.197358</v>
+        <v>2204399122.461466</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1382366420693003</v>
+        <v>0.09257431105139938</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03519129883308204</v>
+        <v>0.05110049900697872</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1632787211.591327</v>
+        <v>1575256276.883994</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0886077269605884</v>
+        <v>0.1412175481852634</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04332893282618815</v>
+        <v>0.04010218927569136</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4503395648.025232</v>
+        <v>4439816311.897685</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1652221694870016</v>
+        <v>0.17726465122803</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02861450626866449</v>
+        <v>0.02424276017982056</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>232</v>
+      </c>
+      <c r="J97" t="n">
+        <v>444</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3679890192.33955</v>
+        <v>2469013921.47397</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07985522142443374</v>
+        <v>0.122813814753739</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02494903921972326</v>
+        <v>0.02610861250832874</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2815448991.831273</v>
+        <v>2389551512.762737</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1074178814428599</v>
+        <v>0.1358550249205404</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03320780025503396</v>
+        <v>0.02171295064129324</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3967,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4087630091.895648</v>
+        <v>4375696861.010272</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1137276929145138</v>
+        <v>0.1379126239878329</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02061311137816964</v>
+        <v>0.02722378018471048</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>206</v>
+      </c>
+      <c r="J100" t="n">
+        <v>443</v>
+      </c>
+      <c r="K100" t="n">
+        <v>37.5900383561801</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3576692058.061701</v>
+        <v>3514340522.786352</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1895378426983148</v>
+        <v>0.1695423479636961</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04391393910382247</v>
+        <v>0.04943186581852958</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>44</v>
+      </c>
+      <c r="J101" t="n">
+        <v>444</v>
+      </c>
+      <c r="K101" t="n">
+        <v>63.41489464576393</v>
       </c>
     </row>
   </sheetData>
